--- a/regional_evaluation.xlsx
+++ b/regional_evaluation.xlsx
@@ -1,71 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviapianta/Documents/GitHub/polsci-climate-modelling/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB2D729-FCD1-FA4C-8D24-0F8CC2C3380F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19540" windowHeight="9520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$G$1</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>fossil_index_reg</t>
-  </si>
-  <si>
-    <t>agri_index_reg</t>
-  </si>
-  <si>
-    <t>instit_index_reg</t>
-  </si>
-  <si>
-    <t>econ_index_reg</t>
-  </si>
-  <si>
-    <t>tech_index_reg</t>
-  </si>
-  <si>
-    <t>attitudes_index_reg</t>
-  </si>
-  <si>
-    <t>ASIA</t>
-  </si>
-  <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>MAF</t>
-  </si>
-  <si>
-    <t>LAM</t>
+    <t xml:space="preserve">region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fossil_index_reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agri_index_reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instit_index_reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">econ_index_reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tech_index_reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attitudes_index_reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OECD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -98,18 +88,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -391,25 +372,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,125 +402,123 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>44.328846220497</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.5785591496149</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51.7647722029325</v>
+      </c>
+      <c r="E2" t="n">
+        <v>39.7680752279375</v>
+      </c>
+      <c r="F2" t="n">
+        <v>47.8151537959712</v>
+      </c>
+      <c r="G2" t="n">
+        <v>48.9905996393999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>43.367933032151001</v>
-      </c>
-      <c r="C2">
-        <v>6.0878745800385197</v>
-      </c>
-      <c r="D2">
-        <v>82.094601639884701</v>
-      </c>
-      <c r="E2">
-        <v>61.197439034419197</v>
-      </c>
-      <c r="F2">
-        <v>47.079067535296602</v>
-      </c>
-      <c r="G2">
-        <v>62.245248266707399</v>
+      <c r="B3" t="n">
+        <v>27.4956901859321</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13.5340744322007</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44.909343230806</v>
+      </c>
+      <c r="E3" t="n">
+        <v>38.2945266984928</v>
+      </c>
+      <c r="F3" t="n">
+        <v>26.4149976982502</v>
+      </c>
+      <c r="G3" t="n">
+        <v>53.3354623126892</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>45.628235985257298</v>
-      </c>
-      <c r="C3">
-        <v>13.083965923084</v>
-      </c>
-      <c r="D3">
-        <v>51.7083363636916</v>
-      </c>
-      <c r="E3">
-        <v>41.125680582285803</v>
-      </c>
-      <c r="F3">
-        <v>52.428275824231598</v>
-      </c>
-      <c r="G3">
-        <v>48.996859446390403</v>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>34.9883776732159</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17.6446984135112</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.5525909852291</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30.9840349386195</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24.3817318630549</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29.5386538126132</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>27.160688261054698</v>
-      </c>
-      <c r="C4">
-        <v>14.1262562929697</v>
-      </c>
-      <c r="D4">
-        <v>46.870910102266201</v>
-      </c>
-      <c r="E4">
-        <v>38.698392741597601</v>
-      </c>
-      <c r="F4">
-        <v>26.949502798717599</v>
-      </c>
-      <c r="G4">
-        <v>53.328563266389402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>17.936763830519901</v>
-      </c>
-      <c r="D5">
-        <v>36.256439434561699</v>
-      </c>
-      <c r="E5">
-        <v>30.873293632793999</v>
-      </c>
-      <c r="F5">
-        <v>28.3440044814859</v>
-      </c>
-      <c r="G5">
-        <v>29.6411332267514</v>
+      <c r="B5" t="n">
+        <v>43.2497720776577</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.97908974141219</v>
+      </c>
+      <c r="D5" t="n">
+        <v>82.2664306006527</v>
+      </c>
+      <c r="E5" t="n">
+        <v>61.326035093275</v>
+      </c>
+      <c r="F5" t="n">
+        <v>47.0149547602076</v>
+      </c>
+      <c r="G5" t="n">
+        <v>62.3399928658587</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>44.158264467731797</v>
-      </c>
-      <c r="C6">
-        <v>8.9111144585388704</v>
-      </c>
-      <c r="D6">
-        <v>44.759754118387796</v>
-      </c>
-      <c r="E6">
-        <v>47.008101734824002</v>
-      </c>
-      <c r="F6">
-        <v>35.825464413541098</v>
-      </c>
-      <c r="G6">
-        <v>29.268098948053499</v>
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>44.723199190294</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.9198326215387</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43.3661143402605</v>
+      </c>
+      <c r="E6" t="n">
+        <v>45.783451001823</v>
+      </c>
+      <c r="F6" t="n">
+        <v>34.264927489883</v>
+      </c>
+      <c r="G6" t="n">
+        <v>29.2771869585953</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
-      <sortCondition descending="1" ref="D1:D6"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/regional_evaluation.xlsx
+++ b/regional_evaluation.xlsx
@@ -1,61 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviapianta/Documents/GitHub/polsci-climate-modelling/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A7AD42-7A85-F14D-BFF2-2D5A11B3D9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20860" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t xml:space="preserve">region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fossil_index_reg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agri_index_reg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instit_index_reg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">econ_index_reg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tech_index_reg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attitudes_index_reg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OECD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REF</t>
+    <t>region</t>
+  </si>
+  <si>
+    <t>fossil_index_reg</t>
+  </si>
+  <si>
+    <t>agri_index_reg</t>
+  </si>
+  <si>
+    <t>instit_index_reg</t>
+  </si>
+  <si>
+    <t>econ_index_reg</t>
+  </si>
+  <si>
+    <t>tech_index_reg</t>
+  </si>
+  <si>
+    <t>attitudes_index_reg</t>
+  </si>
+  <si>
+    <t>ASIA</t>
+  </si>
+  <si>
+    <t>LAM</t>
+  </si>
+  <si>
+    <t>MAF</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>REF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -88,9 +95,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -372,14 +388,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,123 +420,123 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
-        <v>44.328846220497</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>44.328846220496999</v>
+      </c>
+      <c r="C2">
         <v>13.5785591496149</v>
       </c>
-      <c r="D2" t="n">
-        <v>51.7647722029325</v>
-      </c>
-      <c r="E2" t="n">
-        <v>39.7680752279375</v>
-      </c>
-      <c r="F2" t="n">
-        <v>47.8151537959712</v>
-      </c>
-      <c r="G2" t="n">
-        <v>48.9905996393999</v>
+      <c r="D2">
+        <v>51.764772202932498</v>
+      </c>
+      <c r="E2">
+        <v>39.768075227937501</v>
+      </c>
+      <c r="F2">
+        <v>47.815153795971199</v>
+      </c>
+      <c r="G2">
+        <v>48.990599639399903</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
-        <v>27.4956901859321</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>27.495690185932101</v>
+      </c>
+      <c r="C3">
         <v>13.5340744322007</v>
       </c>
-      <c r="D3" t="n">
-        <v>44.909343230806</v>
-      </c>
-      <c r="E3" t="n">
-        <v>38.2945266984928</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="D3">
+        <v>44.909343230806002</v>
+      </c>
+      <c r="E3">
+        <v>38.294526698492803</v>
+      </c>
+      <c r="F3">
         <v>26.4149976982502</v>
       </c>
-      <c r="G3" t="n">
-        <v>53.3354623126892</v>
+      <c r="G3">
+        <v>53.335462312689202</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
-        <v>34.9883776732159</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4">
+        <v>34.988377673215901</v>
+      </c>
+      <c r="C4">
         <v>17.6446984135112</v>
       </c>
-      <c r="D4" t="n">
-        <v>36.5525909852291</v>
-      </c>
-      <c r="E4" t="n">
-        <v>30.9840349386195</v>
-      </c>
-      <c r="F4" t="n">
-        <v>24.3817318630549</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29.5386538126132</v>
+      <c r="D4">
+        <v>36.552590985229102</v>
+      </c>
+      <c r="E4">
+        <v>30.984034938619502</v>
+      </c>
+      <c r="F4">
+        <v>24.381731863054899</v>
+      </c>
+      <c r="G4">
+        <v>29.538653812613202</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>43.2497720776577</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5.97908974141219</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82.2664306006527</v>
-      </c>
-      <c r="E5" t="n">
-        <v>61.326035093275</v>
-      </c>
-      <c r="F5" t="n">
-        <v>47.0149547602076</v>
-      </c>
-      <c r="G5" t="n">
-        <v>62.3399928658587</v>
+      <c r="B5">
+        <v>43.249772077657703</v>
+      </c>
+      <c r="C5">
+        <v>5.9790897414121904</v>
+      </c>
+      <c r="D5">
+        <v>82.266430600652697</v>
+      </c>
+      <c r="E5">
+        <v>61.326035093275003</v>
+      </c>
+      <c r="F5">
+        <v>47.014954760207601</v>
+      </c>
+      <c r="G5">
+        <v>62.339992865858697</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="n">
-        <v>44.723199190294</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10.9198326215387</v>
-      </c>
-      <c r="D6" t="n">
-        <v>43.3661143402605</v>
-      </c>
-      <c r="E6" t="n">
-        <v>45.783451001823</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="B6">
+        <v>44.723199190293997</v>
+      </c>
+      <c r="C6">
+        <v>10.919832621538699</v>
+      </c>
+      <c r="D6">
+        <v>43.366114340260502</v>
+      </c>
+      <c r="E6">
+        <v>45.783451001823003</v>
+      </c>
+      <c r="F6">
         <v>34.264927489883</v>
       </c>
-      <c r="G6" t="n">
-        <v>29.2771869585953</v>
+      <c r="G6">
+        <v>29.277186958595301</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>